--- a/output/1Y_P93_1VAL-D.xlsx
+++ b/output/1Y_P93_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>16.9739</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>589.1398</v>
       </c>
-      <c r="G2" s="1">
-        <v>589.1398</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.096799999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.9739</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.096799999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>17.6787</v>
       </c>
+      <c r="E3" s="1">
+        <v>589.1398</v>
+      </c>
       <c r="F3" s="1">
         <v>565.6525</v>
       </c>
-      <c r="G3" s="1">
-        <v>1154.7922</v>
-      </c>
       <c r="H3" s="1">
-        <v>20309.3313</v>
+        <v>10361.2016</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.3191</v>
+        <v>10361.2016</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.9739</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20309.3313</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0181</v>
+        <v>0.0361</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>17.7792</v>
       </c>
+      <c r="E4" s="1">
+        <v>1154.7922</v>
+      </c>
       <c r="F4" s="1">
         <v>562.455</v>
       </c>
-      <c r="G4" s="1">
-        <v>1717.2473</v>
-      </c>
       <c r="H4" s="1">
-        <v>30372.9522</v>
+        <v>20424.8105</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.4698</v>
+        <v>20424.8105</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.3191</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30372.9522</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0021</v>
+        <v>0.0031</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>18.0055</v>
       </c>
+      <c r="E5" s="1">
+        <v>1717.2473</v>
+      </c>
       <c r="F5" s="1">
         <v>555.3859</v>
       </c>
-      <c r="G5" s="1">
-        <v>2272.6331</v>
-      </c>
       <c r="H5" s="1">
-        <v>40707.8587</v>
+        <v>30759.6762</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.6007</v>
+        <v>30759.6762</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.4698</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40707.8587</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0083</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>18.1364</v>
       </c>
+      <c r="E6" s="1">
+        <v>2272.6331</v>
+      </c>
       <c r="F6" s="1">
         <v>551.3773</v>
       </c>
-      <c r="G6" s="1">
-        <v>2824.0104</v>
-      </c>
       <c r="H6" s="1">
-        <v>50951.6437</v>
+        <v>41003.5283</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.7053</v>
+        <v>41003.5283</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.6007</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50951.6437</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0048</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>18.2605</v>
       </c>
+      <c r="E7" s="1">
+        <v>2824.0104</v>
+      </c>
       <c r="F7" s="1">
         <v>547.6301</v>
       </c>
-      <c r="G7" s="1">
-        <v>3371.6406</v>
-      </c>
       <c r="H7" s="1">
-        <v>61248.5484</v>
+        <v>51300.409</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.7955</v>
+        <v>51300.409</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.7053</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61248.5484</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0049</v>
+        <v>0.0058</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>18.0221</v>
       </c>
+      <c r="E8" s="1">
+        <v>3371.6406</v>
+      </c>
       <c r="F8" s="1">
         <v>554.8742999999999</v>
       </c>
-      <c r="G8" s="1">
-        <v>3926.5149</v>
-      </c>
       <c r="H8" s="1">
-        <v>70396.9145</v>
+        <v>60448.7953</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>-0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.8275</v>
+        <v>60448.7953</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.7955</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70396.9145</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.012</v>
+        <v>-0.0139</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>18.2846</v>
       </c>
+      <c r="E9" s="1">
+        <v>3926.5149</v>
+      </c>
       <c r="F9" s="1">
         <v>546.9083000000001</v>
       </c>
-      <c r="G9" s="1">
-        <v>4473.4232</v>
-      </c>
       <c r="H9" s="1">
-        <v>81370.67329999999</v>
+        <v>71422.5202</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>-0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.8834</v>
+        <v>71422.5202</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.8275</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>81370.67329999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0121</v>
+        <v>0.0138</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>16.485</v>
       </c>
+      <c r="E10" s="1">
+        <v>4473.4232</v>
+      </c>
       <c r="F10" s="1">
         <v>606.6121000000001</v>
       </c>
-      <c r="G10" s="1">
-        <v>5080.0353</v>
-      </c>
       <c r="H10" s="1">
-        <v>83310.54640000001</v>
+        <v>73362.3511</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>-0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.7164</v>
+        <v>73362.3511</v>
       </c>
       <c r="K10" s="1">
+        <v>80000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>17.8834</v>
+      </c>
+      <c r="M10" s="1">
         <v>1.538</v>
       </c>
-      <c r="L10" s="1">
-        <v>6192.1124</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-3807.8876</v>
+        <v>5435.0819</v>
       </c>
       <c r="O10" s="1">
-        <v>6192.1124</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>89502.6588</v>
+        <v>-4564.9181</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0204</v>
+        <v>-0.099</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>16.9765</v>
       </c>
+      <c r="E11" s="1">
+        <v>5080.0353</v>
+      </c>
       <c r="F11" s="1">
-        <v>710.6316</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5790.6669</v>
+        <v>695.7673</v>
       </c>
       <c r="H11" s="1">
-        <v>97795.09849999999</v>
+        <v>85793.66770000001</v>
       </c>
       <c r="I11" s="1">
-        <v>102064.0375</v>
+        <v>5435.0819</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6256</v>
+        <v>91228.74950000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91811.694</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>18.073</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-12064.0375</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>4128.0749</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>101923.1734</v>
+        <v>-11811.694</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0243</v>
+        <v>0.0944</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>17.414</v>
       </c>
+      <c r="E12" s="1">
+        <v>5775.8026</v>
+      </c>
       <c r="F12" s="1">
-        <v>692.7781</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6483.445</v>
+        <v>678.2872</v>
       </c>
       <c r="H12" s="1">
-        <v>112317.2554</v>
+        <v>100058.2714</v>
       </c>
       <c r="I12" s="1">
-        <v>114128.0749</v>
+        <v>3623.3879</v>
       </c>
       <c r="J12" s="1">
-        <v>17.603</v>
+        <v>103681.6593</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>103623.3879</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.941</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-12064.0375</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>2064.0375</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>114381.2928</v>
+        <v>-11811.694</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.022</v>
+        <v>0.0242</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>18.2974</v>
       </c>
+      <c r="E13" s="1">
+        <v>6454.0898</v>
+      </c>
       <c r="F13" s="1">
-        <v>659.3307</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7142.7757</v>
+        <v>645.5395</v>
       </c>
       <c r="H13" s="1">
-        <v>130016.3738</v>
+        <v>117480.5701</v>
       </c>
       <c r="I13" s="1">
-        <v>126192.1124</v>
+        <v>1811.694</v>
       </c>
       <c r="J13" s="1">
-        <v>17.6671</v>
+        <v>119292.2641</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>115435.0819</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.8856</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-12064.0375</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>130016.3738</v>
+        <v>-11811.694</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0453</v>
+        <v>0.0494</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>17.699</v>
       </c>
+      <c r="E14" s="1">
+        <v>7099.6293</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7142.7757</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6454.0898</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>125004.5931</v>
       </c>
       <c r="I14" s="1">
-        <v>126192.1124</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.6671</v>
+        <v>125004.5931</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>115435.0819</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.2593</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>125764.2794</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>125764.2794</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>125764.2794</v>
+        <v>113638.4505</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1018</v>
+        <v>-0.0332</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>16.9739</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>589.1398</v>
       </c>
       <c r="G2" s="1">
-        <v>589.1398</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.096799999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.9739</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.096799999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>17.6787</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>589.1398</v>
       </c>
       <c r="F3" s="1">
         <v>548.0638</v>
       </c>
       <c r="G3" s="1">
-        <v>1137.2036</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10361.2016</v>
       </c>
       <c r="I3" s="1">
-        <v>19689.0558</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.3136</v>
+        <v>10361.2016</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9689.0558</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.4461</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9689.0558</v>
       </c>
-      <c r="O3" s="1">
-        <v>310.9442</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20310.9442</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0182</v>
+        <v>0.0361</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>17.7792</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1137.2036</v>
       </c>
       <c r="F4" s="1">
         <v>558.9574</v>
       </c>
       <c r="G4" s="1">
-        <v>1696.161</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>20113.7204</v>
       </c>
       <c r="I4" s="1">
-        <v>29626.8714</v>
+        <v>310.9442</v>
       </c>
       <c r="J4" s="1">
-        <v>17.467</v>
+        <v>20424.6645</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19626.8714</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.2589</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9937.815500000001</v>
       </c>
-      <c r="O4" s="1">
-        <v>373.1286</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30373.1286</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0021</v>
+        <v>0.0031</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>18.0055</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1696.161</v>
       </c>
       <c r="F5" s="1">
         <v>536.9538</v>
       </c>
       <c r="G5" s="1">
-        <v>2233.1149</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>30381.9755</v>
       </c>
       <c r="I5" s="1">
-        <v>39294.9937</v>
+        <v>373.1286</v>
       </c>
       <c r="J5" s="1">
-        <v>17.5965</v>
+        <v>30755.1041</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29294.9937</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.2714</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9668.122300000001</v>
       </c>
-      <c r="O5" s="1">
-        <v>705.0063</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40705.0063</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.008200000000000001</v>
+        <v>0.0109</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>18.1364</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2233.1149</v>
       </c>
       <c r="F6" s="1">
         <v>538.1504</v>
       </c>
       <c r="G6" s="1">
-        <v>2771.2653</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>40290.5282</v>
       </c>
       <c r="I6" s="1">
-        <v>49055.1054</v>
+        <v>705.0063</v>
       </c>
       <c r="J6" s="1">
-        <v>17.7013</v>
+        <v>40995.5346</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39055.1054</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.4891</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9760.111699999999</v>
       </c>
-      <c r="O6" s="1">
-        <v>944.8946</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50944.8946</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0047</v>
+        <v>0.0059</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>18.2605</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2771.2653</v>
       </c>
       <c r="F7" s="1">
         <v>531.6446</v>
       </c>
       <c r="G7" s="1">
-        <v>3302.9099</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>50342.2513</v>
       </c>
       <c r="I7" s="1">
-        <v>58763.2009</v>
+        <v>944.8946</v>
       </c>
       <c r="J7" s="1">
-        <v>17.7913</v>
+        <v>51287.1459</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>48763.2009</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.596</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-9708.095499999999</v>
       </c>
-      <c r="O7" s="1">
-        <v>1236.7991</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61236.7991</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0048</v>
+        <v>0.0057</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>18.0221</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3302.9099</v>
       </c>
       <c r="F8" s="1">
         <v>601.4664</v>
       </c>
       <c r="G8" s="1">
-        <v>3904.3762</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>59216.5498</v>
       </c>
       <c r="I8" s="1">
-        <v>69602.8882</v>
+        <v>1236.7991</v>
       </c>
       <c r="J8" s="1">
-        <v>17.8269</v>
+        <v>60453.3489</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>59602.8882</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>18.0456</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10839.6873</v>
       </c>
-      <c r="O8" s="1">
-        <v>397.1118</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70397.1118</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0118</v>
+        <v>-0.0136</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>18.2846</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>3904.3762</v>
       </c>
       <c r="F9" s="1">
         <v>493.693</v>
       </c>
       <c r="G9" s="1">
-        <v>4398.0692</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>71019.82309999999</v>
       </c>
       <c r="I9" s="1">
-        <v>78629.86719999999</v>
+        <v>397.1118</v>
       </c>
       <c r="J9" s="1">
-        <v>17.8783</v>
+        <v>71416.93489999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>68629.86719999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.5777</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-9026.978999999999</v>
       </c>
-      <c r="O9" s="1">
-        <v>1370.1328</v>
-      </c>
-      <c r="P9" s="1">
-        <v>81370.13280000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0121</v>
+        <v>0.0137</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>16.485</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4398.0692</v>
       </c>
       <c r="F10" s="1">
         <v>689.726</v>
       </c>
       <c r="G10" s="1">
-        <v>5087.7952</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>83437.8066</v>
+        <v>72126.57640000001</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>1370.1328</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6894</v>
+        <v>73496.7092</v>
       </c>
       <c r="K10" s="1">
+        <v>80000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>18.1898</v>
+      </c>
+      <c r="M10" s="1">
         <v>1.538</v>
       </c>
-      <c r="L10" s="1">
-        <v>6087.8075</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-5282.3253</v>
+        <v>5404.4376</v>
       </c>
       <c r="O10" s="1">
-        <v>6087.8075</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>89525.61410000001</v>
+        <v>-5965.6952</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0202</v>
+        <v>-0.0973</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>16.9765</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5087.7952</v>
       </c>
       <c r="F11" s="1">
         <v>833.4288</v>
       </c>
       <c r="G11" s="1">
-        <v>5921.224</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>85924.7209</v>
       </c>
       <c r="I11" s="1">
-        <v>104148.7042</v>
+        <v>5404.4376</v>
       </c>
       <c r="J11" s="1">
-        <v>17.589</v>
+        <v>91329.15850000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>94148.70419999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>18.5048</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-14148.7042</v>
       </c>
-      <c r="O11" s="1">
-        <v>1939.1033</v>
-      </c>
-      <c r="P11" s="1">
-        <v>101939.1033</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0242</v>
+        <v>0.09379999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>17.414</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5921.224</v>
       </c>
       <c r="F12" s="1">
         <v>428.4588</v>
       </c>
       <c r="G12" s="1">
-        <v>6349.6828</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>102577.5088</v>
       </c>
       <c r="I12" s="1">
-        <v>111609.8852</v>
+        <v>1255.7334</v>
       </c>
       <c r="J12" s="1">
-        <v>17.5772</v>
+        <v>103833.2423</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101609.8852</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.1603</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-7461.181</v>
       </c>
-      <c r="O12" s="1">
-        <v>4477.9223</v>
-      </c>
-      <c r="P12" s="1">
-        <v>114477.9223</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0227</v>
+        <v>0.0247</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>18.2974</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6349.6828</v>
       </c>
       <c r="F13" s="1">
         <v>242.8182</v>
       </c>
       <c r="G13" s="1">
-        <v>6592.501</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>115580.1012</v>
       </c>
       <c r="I13" s="1">
-        <v>116052.8274</v>
+        <v>3794.5524</v>
       </c>
       <c r="J13" s="1">
-        <v>17.6038</v>
+        <v>119374.6537</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>106052.8274</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.7021</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-4442.9422</v>
       </c>
-      <c r="O13" s="1">
-        <v>10034.9801</v>
-      </c>
-      <c r="P13" s="1">
-        <v>130034.9801</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0446</v>
+        <v>0.0487</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>17.699</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6592.501</v>
       </c>
       <c r="F14" s="1">
         <v>-6592.501</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>116075.4841</v>
       </c>
       <c r="I14" s="1">
-        <v>116052.8274</v>
+        <v>9351.610199999999</v>
       </c>
       <c r="J14" s="1">
-        <v>17.6038</v>
+        <v>125427.0944</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>106052.8274</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.0869</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>116075.4841</v>
       </c>
-      <c r="O14" s="1">
-        <v>126110.4642</v>
-      </c>
-      <c r="P14" s="1">
-        <v>126110.4642</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0994</v>
+        <v>-0.0305</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>16.9739</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>589.1398</v>
       </c>
       <c r="G2" s="1">
-        <v>589.1398</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.096799999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.9739</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.096799999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>17.6787</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>589.1398</v>
       </c>
       <c r="F3" s="1">
         <v>550.9068</v>
       </c>
       <c r="G3" s="1">
-        <v>1140.0466</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10361.2016</v>
       </c>
       <c r="I3" s="1">
-        <v>19739.3165</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.3145</v>
+        <v>10361.2016</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9739.316500000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.5314</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9739.316500000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>260.6835</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20310.6835</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0182</v>
+        <v>0.0361</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>17.7792</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1140.0466</v>
       </c>
       <c r="F4" s="1">
         <v>564.6093</v>
       </c>
       <c r="G4" s="1">
-        <v>1704.656</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>20164.0047</v>
       </c>
       <c r="I4" s="1">
-        <v>29777.6189</v>
+        <v>260.6835</v>
       </c>
       <c r="J4" s="1">
-        <v>17.4684</v>
+        <v>20424.6881</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19777.6189</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.3481</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10038.3023</v>
       </c>
-      <c r="O4" s="1">
-        <v>222.3811</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30372.6311</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.002</v>
+        <v>0.0031</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>18.0055</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1704.656</v>
       </c>
       <c r="F5" s="1">
         <v>545.2632</v>
       </c>
       <c r="G5" s="1">
-        <v>2249.9191</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>30534.1385</v>
       </c>
       <c r="I5" s="1">
-        <v>39595.3546</v>
+        <v>222.3811</v>
       </c>
       <c r="J5" s="1">
-        <v>17.5986</v>
+        <v>30756.5197</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29595.3546</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.3615</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9817.7358</v>
       </c>
-      <c r="O5" s="1">
-        <v>404.6454</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40705.6466</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.008200000000000001</v>
+        <v>0.0109</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>18.1364</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2249.9191</v>
       </c>
       <c r="F6" s="1">
         <v>549.1977000000001</v>
       </c>
       <c r="G6" s="1">
-        <v>2799.1169</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>40593.7157</v>
       </c>
       <c r="I6" s="1">
-        <v>49555.8247</v>
+        <v>404.6454</v>
       </c>
       <c r="J6" s="1">
-        <v>17.7041</v>
+        <v>40998.3611</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39555.8247</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.581</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9960.469999999999</v>
       </c>
-      <c r="O6" s="1">
-        <v>444.1753</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50946.6816</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0048</v>
+        <v>0.0059</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>18.2605</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2799.1169</v>
       </c>
       <c r="F7" s="1">
         <v>545.3556</v>
       </c>
       <c r="G7" s="1">
-        <v>3344.4725</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>50848.1972</v>
       </c>
       <c r="I7" s="1">
-        <v>59514.2915</v>
+        <v>444.1753</v>
       </c>
       <c r="J7" s="1">
-        <v>17.7948</v>
+        <v>51292.3725</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>49514.2915</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.6893</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-9958.4668</v>
       </c>
-      <c r="O7" s="1">
-        <v>485.7085</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61240.7273</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0048</v>
+        <v>0.0058</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>18.0221</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3344.4725</v>
       </c>
       <c r="F8" s="1">
         <v>581.825</v>
       </c>
       <c r="G8" s="1">
-        <v>3926.2975</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>70393.0178</v>
+        <v>59961.7099</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>485.7085</v>
       </c>
       <c r="J8" s="1">
-        <v>17.8285</v>
+        <v>60447.4184</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.94</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10485.7085</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70393.0178</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0119</v>
+        <v>-0.0138</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>18.2846</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>3926.2975</v>
       </c>
       <c r="F9" s="1">
         <v>549.5124</v>
       </c>
       <c r="G9" s="1">
-        <v>4475.81</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>71418.5667</v>
       </c>
       <c r="I9" s="1">
-        <v>80047.6149</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.8845</v>
+        <v>71418.5667</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70047.6149</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.8406</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10047.6149</v>
       </c>
-      <c r="O9" s="1">
-        <v>-47.6149</v>
-      </c>
-      <c r="P9" s="1">
-        <v>81366.47289999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0121</v>
+        <v>0.0138</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>16.485</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4475.81</v>
       </c>
       <c r="F10" s="1">
         <v>603.7237</v>
       </c>
       <c r="G10" s="1">
-        <v>5079.5336</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>83302.32000000001</v>
+        <v>73401.4929</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>-47.6149</v>
       </c>
       <c r="J10" s="1">
-        <v>17.7182</v>
+        <v>73353.878</v>
       </c>
       <c r="K10" s="1">
+        <v>80000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>17.8739</v>
+      </c>
+      <c r="M10" s="1">
         <v>1.538</v>
       </c>
-      <c r="L10" s="1">
-        <v>6195.4161</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-3756.969</v>
+        <v>5434.781</v>
       </c>
       <c r="O10" s="1">
-        <v>6195.4161</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>89497.73609999999</v>
+        <v>-4517.6041</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0205</v>
+        <v>-0.09909999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>16.9765</v>
       </c>
       <c r="E11" s="1">
+        <v>5079.5336</v>
+      </c>
+      <c r="F11" s="1">
+        <v>909.1851</v>
+      </c>
+      <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
-      <c r="F11" s="1">
-        <v>953.9903</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6033.5239</v>
-      </c>
       <c r="H11" s="1">
-        <v>101896.5656</v>
+        <v>85785.196</v>
       </c>
       <c r="I11" s="1">
-        <v>106195.4161</v>
+        <v>5434.781</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6009</v>
+        <v>91219.977</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>95434.781</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>18.7881</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-16195.4161</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>101896.5656</v>
+        <v>-15434.781</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0241</v>
+        <v>0.0944</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>17.414</v>
       </c>
       <c r="E12" s="1">
+        <v>5988.7188</v>
+      </c>
+      <c r="F12" s="1">
+        <v>522.1112000000001</v>
+      </c>
+      <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
-      <c r="F12" s="1">
-        <v>477.3061</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6510.83</v>
-      </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>103746.7671</v>
       </c>
       <c r="I12" s="1">
-        <v>114507.2237</v>
+        <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.5872</v>
+        <v>103746.7671</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>104526.826</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.454</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-8311.8076</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>1688.1924</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>114479.8578</v>
+        <v>-9092.044900000001</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0231</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>18.2974</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6510.83</v>
       </c>
       <c r="F13" s="1">
         <v>266.0207</v>
       </c>
       <c r="G13" s="1">
-        <v>6776.8506</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>118513.3828</v>
       </c>
       <c r="I13" s="1">
-        <v>119374.71</v>
+        <v>907.9551</v>
       </c>
       <c r="J13" s="1">
-        <v>17.6151</v>
+        <v>119421.3379</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>109394.3123</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.8019</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-4867.4863</v>
       </c>
-      <c r="O13" s="1">
-        <v>6820.7061</v>
-      </c>
-      <c r="P13" s="1">
-        <v>130176.3299</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0458</v>
+        <v>0.0499</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>17.699</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6776.8506</v>
       </c>
       <c r="F14" s="1">
         <v>-6776.8506</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>119321.3645</v>
       </c>
       <c r="I14" s="1">
-        <v>119374.71</v>
+        <v>6040.4688</v>
       </c>
       <c r="J14" s="1">
-        <v>17.6151</v>
+        <v>125361.8333</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>109394.3123</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.1424</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>119321.3645</v>
       </c>
-      <c r="O14" s="1">
-        <v>126142.0707</v>
-      </c>
-      <c r="P14" s="1">
-        <v>126142.0707</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.1001</v>
+        <v>-0.0314</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>16.9739</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>589.1398</v>
       </c>
       <c r="G2" s="1">
-        <v>589.1398</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.096799999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.9739</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.096799999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>17.6787</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>589.1398</v>
       </c>
       <c r="F3" s="1">
         <v>553.7498000000001</v>
       </c>
       <c r="G3" s="1">
-        <v>1142.8896</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10361.2016</v>
       </c>
       <c r="I3" s="1">
-        <v>19789.5773</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.3154</v>
+        <v>10361.2016</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9789.577300000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.6167</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9789.577300000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>210.4227</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20310.4227</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0182</v>
+        <v>0.0361</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>17.7792</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1142.8896</v>
       </c>
       <c r="F4" s="1">
         <v>570.2895</v>
       </c>
       <c r="G4" s="1">
-        <v>1713.1792</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>20214.289</v>
       </c>
       <c r="I4" s="1">
-        <v>29928.869</v>
+        <v>210.4227</v>
       </c>
       <c r="J4" s="1">
-        <v>17.4698</v>
+        <v>20424.7117</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19928.869</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.4373</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10139.2917</v>
       </c>
-      <c r="O4" s="1">
-        <v>71.131</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30372.131</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.002</v>
+        <v>0.0031</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>18.0055</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1713.1792</v>
       </c>
       <c r="F5" s="1">
         <v>553.6563</v>
       </c>
       <c r="G5" s="1">
-        <v>2266.8355</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>30686.8079</v>
       </c>
       <c r="I5" s="1">
-        <v>39897.7272</v>
+        <v>71.131</v>
       </c>
       <c r="J5" s="1">
-        <v>17.6006</v>
+        <v>30757.939</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29897.7272</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.4516</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9968.858200000001</v>
       </c>
-      <c r="O5" s="1">
-        <v>102.2728</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40706.2828</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0083</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>18.1364</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2266.8355</v>
       </c>
       <c r="F6" s="1">
         <v>557.0164</v>
       </c>
       <c r="G6" s="1">
-        <v>2823.8519</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>50948.7829</v>
+        <v>40898.9253</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>102.2728</v>
       </c>
       <c r="J6" s="1">
-        <v>17.7063</v>
+        <v>41001.1981</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.6457</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10102.2728</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50948.7829</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0048</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>18.2605</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>2823.8519</v>
       </c>
       <c r="F7" s="1">
         <v>547.6301</v>
       </c>
       <c r="G7" s="1">
-        <v>3371.482</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61245.668</v>
+        <v>51297.5286</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.7963</v>
+        <v>51297.5286</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.7063</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61245.668</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0049</v>
+        <v>0.0058</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>18.0221</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3371.482</v>
       </c>
       <c r="F8" s="1">
         <v>554.8742999999999</v>
       </c>
       <c r="G8" s="1">
-        <v>3926.3563</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>70394.0717</v>
+        <v>60445.9525</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>-0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.8282</v>
+        <v>60445.9525</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.7963</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70394.0717</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.012</v>
+        <v>-0.0139</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>18.2846</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>3926.3563</v>
       </c>
       <c r="F9" s="1">
         <v>546.9083000000001</v>
       </c>
       <c r="G9" s="1">
-        <v>4473.2646</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>81367.78909999999</v>
+        <v>71419.636</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.884</v>
+        <v>71419.636</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.8282</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>81367.78909999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0121</v>
+        <v>0.0138</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>16.485</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4473.2646</v>
       </c>
       <c r="F10" s="1">
         <v>606.6121000000001</v>
       </c>
       <c r="G10" s="1">
-        <v>5079.8767</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>83307.9461</v>
+        <v>73359.7507</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.717</v>
+        <v>73359.7507</v>
       </c>
       <c r="K10" s="1">
+        <v>80000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>17.884</v>
+      </c>
+      <c r="M10" s="1">
         <v>1.538</v>
       </c>
-      <c r="L10" s="1">
-        <v>6191.8929</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-3808.1071</v>
+        <v>5434.8624</v>
       </c>
       <c r="O10" s="1">
-        <v>6191.8929</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>89499.83900000001</v>
+        <v>-4565.1376</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0204</v>
+        <v>-0.099</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>16.9765</v>
       </c>
       <c r="E11" s="1">
+        <v>5079.8767</v>
+      </c>
+      <c r="F11" s="1">
+        <v>909.1899</v>
+      </c>
+      <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
-      <c r="F11" s="1">
-        <v>953.7828</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6033.6595</v>
-      </c>
       <c r="H11" s="1">
-        <v>101898.8545</v>
+        <v>85790.9898</v>
       </c>
       <c r="I11" s="1">
-        <v>106191.8929</v>
+        <v>5434.8624</v>
       </c>
       <c r="J11" s="1">
-        <v>17.5999</v>
+        <v>91225.85219999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>95434.8624</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>18.7868</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-16191.8929</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>101898.8545</v>
+        <v>-15434.8624</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0241</v>
+        <v>0.0944</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>17.414</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5989.0666</v>
       </c>
       <c r="F12" s="1">
         <v>574.2506</v>
       </c>
       <c r="G12" s="1">
-        <v>6607.9101</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>114473.4516</v>
+        <v>103752.7933</v>
       </c>
       <c r="I12" s="1">
-        <v>116191.8929</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.5838</v>
+        <v>103752.7933</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>105434.8624</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.6046</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>114473.4516</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.023</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>18.2974</v>
       </c>
       <c r="E13" s="1">
+        <v>6563.3172</v>
+      </c>
+      <c r="F13" s="1">
+        <v>404.134</v>
+      </c>
+      <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
-      <c r="F13" s="1">
-        <v>359.5411</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6967.4512</v>
-      </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>119468.7816</v>
       </c>
       <c r="I13" s="1">
-        <v>122770.5605</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.6206</v>
+        <v>119468.7816</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>112829.4632</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.1909</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-6578.6676</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>3421.3324</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>130246.3625</v>
+        <v>-7394.6008</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0464</v>
+        <v>0.0502</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>17.699</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6967.4512</v>
       </c>
       <c r="F14" s="1">
         <v>-6967.4512</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>122677.3064</v>
       </c>
       <c r="I14" s="1">
-        <v>122770.5605</v>
+        <v>2605.3992</v>
       </c>
       <c r="J14" s="1">
-        <v>17.6206</v>
+        <v>125282.7056</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>112829.4632</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.1938</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>122677.3064</v>
       </c>
-      <c r="O14" s="1">
-        <v>126098.6388</v>
-      </c>
-      <c r="P14" s="1">
-        <v>126098.6388</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.1009</v>
+        <v>-0.0323</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>16.9739</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>589.1398</v>
       </c>
       <c r="G2" s="1">
-        <v>589.1398</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.096799999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.9739</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.096799999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>17.6787</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>589.1398</v>
       </c>
       <c r="F3" s="1">
         <v>556.5928</v>
       </c>
       <c r="G3" s="1">
-        <v>1145.7326</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10361.2016</v>
       </c>
       <c r="I3" s="1">
-        <v>19839.838</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.3163</v>
+        <v>10361.2016</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9839.838</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.702</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9839.838</v>
       </c>
-      <c r="O3" s="1">
-        <v>160.162</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20310.162</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0182</v>
+        <v>0.0361</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>17.7792</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1145.7326</v>
       </c>
       <c r="F4" s="1">
         <v>571.4634</v>
       </c>
       <c r="G4" s="1">
-        <v>1717.196</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30372.0464</v>
+        <v>20264.5733</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>160.162</v>
       </c>
       <c r="J4" s="1">
-        <v>17.4703</v>
+        <v>20424.7353</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.4561</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10160.162</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30372.0464</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.002</v>
+        <v>0.0031</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>18.0055</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1717.196</v>
       </c>
       <c r="F5" s="1">
         <v>555.3859</v>
       </c>
       <c r="G5" s="1">
-        <v>2272.5819</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40706.9414</v>
+        <v>30758.7589</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.6011</v>
+        <v>30758.7589</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.4703</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40706.9414</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0083</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>18.1364</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2272.5819</v>
       </c>
       <c r="F6" s="1">
         <v>551.3773</v>
       </c>
       <c r="G6" s="1">
-        <v>2823.9592</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>50950.7197</v>
+        <v>41002.6043</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.7056</v>
+        <v>41002.6043</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.6011</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50950.7197</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0048</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>18.2605</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2823.9592</v>
       </c>
       <c r="F7" s="1">
         <v>547.6301</v>
       </c>
       <c r="G7" s="1">
-        <v>3371.5894</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>61247.6181</v>
+        <v>51299.4787</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.7958</v>
+        <v>51299.4787</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.7056</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61247.6181</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0049</v>
+        <v>0.0058</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>18.0221</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3371.5894</v>
       </c>
       <c r="F8" s="1">
         <v>554.8742999999999</v>
       </c>
       <c r="G8" s="1">
-        <v>3926.4637</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>70395.9964</v>
+        <v>60447.8771</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>-0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.8277</v>
+        <v>60447.8771</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.7958</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70395.9964</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.012</v>
+        <v>-0.0139</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>18.2846</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>3926.4637</v>
       </c>
       <c r="F9" s="1">
         <v>546.9083000000001</v>
       </c>
       <c r="G9" s="1">
-        <v>4473.372</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>81369.7418</v>
+        <v>71421.58869999999</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.8836</v>
+        <v>71421.58869999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.8277</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>81369.7418</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0121</v>
+        <v>0.0138</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>16.485</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4473.372</v>
       </c>
       <c r="F10" s="1">
         <v>606.6121000000001</v>
       </c>
       <c r="G10" s="1">
-        <v>5079.9841</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>83309.7066</v>
+        <v>73361.51119999999</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.7166</v>
+        <v>73361.51119999999</v>
       </c>
       <c r="K10" s="1">
+        <v>80000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>17.8836</v>
+      </c>
+      <c r="M10" s="1">
         <v>1.538</v>
       </c>
-      <c r="L10" s="1">
-        <v>6192.0415</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-3807.9585</v>
+        <v>5435.011</v>
       </c>
       <c r="O10" s="1">
-        <v>6192.0415</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>89501.7481</v>
+        <v>-4564.989</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0204</v>
+        <v>-0.099</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>16.9765</v>
       </c>
       <c r="E11" s="1">
+        <v>5079.9841</v>
+      </c>
+      <c r="F11" s="1">
+        <v>909.1987</v>
+      </c>
+      <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
-      <c r="F11" s="1">
-        <v>953.7915</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6033.7756</v>
-      </c>
       <c r="H11" s="1">
-        <v>101900.8153</v>
+        <v>85792.8028</v>
       </c>
       <c r="I11" s="1">
-        <v>106192.0415</v>
+        <v>5435.011</v>
       </c>
       <c r="J11" s="1">
-        <v>17.5996</v>
+        <v>91227.8138</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>95435.011</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>18.7865</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-16192.0415</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>101900.8153</v>
+        <v>-15435.011</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0241</v>
+        <v>0.0944</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>17.414</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>5989.1827</v>
       </c>
       <c r="F12" s="1">
         <v>574.2506</v>
       </c>
       <c r="G12" s="1">
-        <v>6608.0262</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>114475.4629</v>
+        <v>103754.8046</v>
       </c>
       <c r="I12" s="1">
-        <v>116192.0415</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.5835</v>
+        <v>103754.8046</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>105435.011</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.6042</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>114475.4629</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.023</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>18.2974</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6563.4333</v>
       </c>
       <c r="F13" s="1">
         <v>546.5257</v>
       </c>
       <c r="G13" s="1">
-        <v>7154.5519</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>130230.731</v>
+        <v>119470.895</v>
       </c>
       <c r="I13" s="1">
-        <v>126192.0415</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.638</v>
+        <v>119470.895</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>115435.011</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.5876</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>130230.731</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0462</v>
+        <v>0.0502</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>17.699</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7109.9591</v>
       </c>
       <c r="F14" s="1">
-        <v>-7154.5519</v>
+        <v>-7109.9591</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>125186.4711</v>
       </c>
       <c r="I14" s="1">
-        <v>126192.0415</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.638</v>
+        <v>125186.4711</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>115435.011</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.2357</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>125971.6263</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>125971.6263</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>125971.6263</v>
+        <v>125186.4711</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1017</v>
+        <v>-0.0331</v>
       </c>
     </row>
   </sheetData>
@@ -4479,9 +4452,9 @@
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>17.6513</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>17.6671</v>
+        <v>16.2593</v>
       </c>
       <c r="D3" s="1">
-        <v>17.6038</v>
+        <v>16.0869</v>
       </c>
       <c r="E3" s="1">
-        <v>17.6151</v>
+        <v>16.1424</v>
       </c>
       <c r="F3" s="1">
-        <v>17.6206</v>
+        <v>16.1938</v>
       </c>
       <c r="G3" s="1">
-        <v>17.638</v>
+        <v>16.2357</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.0508</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0077</v>
+        <v>0.0978</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0102</v>
+        <v>0.1012</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0106</v>
+        <v>0.1006</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0105</v>
+        <v>0.1002</v>
       </c>
       <c r="G4" s="3">
-        <v>0.009599999999999999</v>
+        <v>0.0994</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1306</v>
       </c>
       <c r="C5" s="3">
-        <v>0.121</v>
+        <v>0.1547</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1188</v>
+        <v>0.1523</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1199</v>
+        <v>0.1544</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1208</v>
+        <v>0.1548</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1214</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>0.2329</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.1043</v>
+        <v>0.5008</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.0848</v>
+        <v>0.531</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.08069999999999999</v>
+        <v>0.5201</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.08160000000000001</v>
+        <v>0.5158</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.0887</v>
+        <v>0.5106000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.09130000000000001</v>
+        <v>-0.0977</v>
       </c>
       <c r="D7" s="3">
-        <v>0.0989</v>
+        <v>0.08740000000000001</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0979</v>
+        <v>0.0851</v>
       </c>
       <c r="F7" s="3">
-        <v>0.0964</v>
+        <v>0.0832</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0939</v>
+        <v>0.0813</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>6192.1124</v>
+        <v>5435.0819</v>
       </c>
       <c r="D8" s="1">
-        <v>6087.8075</v>
+        <v>5404.4376</v>
       </c>
       <c r="E8" s="1">
-        <v>6195.4161</v>
+        <v>5434.781</v>
       </c>
       <c r="F8" s="1">
-        <v>6191.8929</v>
+        <v>5434.8624</v>
       </c>
       <c r="G8" s="1">
-        <v>6192.0415</v>
+        <v>5435.011</v>
       </c>
     </row>
   </sheetData>
